--- a/ScrumBacklog/Sprint backlog.xlsx
+++ b/ScrumBacklog/Sprint backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,6 +1056,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1252,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1388,9 +1394,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1398,6 +1401,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,12 +1450,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1442,40 +1472,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,6 +1486,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2469,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
@@ -2486,145 +2498,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="52" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="47">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="46">
         <v>1</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <v>2</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <v>3</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="47">
-        <v>5</v>
-      </c>
-      <c r="N3" s="47">
+      <c r="M3" s="46">
+        <v>5</v>
+      </c>
+      <c r="N3" s="46">
         <v>6</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="46">
         <v>7</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="46">
         <v>8</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="46">
         <v>9</v>
       </c>
-      <c r="R3" s="47">
+      <c r="R3" s="46">
         <v>10</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="46">
         <v>11</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="46">
         <v>12</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="46">
         <v>13</v>
       </c>
-      <c r="V3" s="47">
+      <c r="V3" s="46">
         <v>14</v>
       </c>
-      <c r="W3" s="47">
+      <c r="W3" s="46">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="60">
+      <c r="A4" s="70"/>
+      <c r="B4" s="68">
         <v>0</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="66">
         <v>0</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="64">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -2648,10 +2660,10 @@
       <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -2673,10 +2685,10 @@
       <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -2698,10 +2710,10 @@
       <c r="W6" s="13"/>
     </row>
     <row r="7" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="57"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -2723,10 +2735,10 @@
       <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -2748,10 +2760,10 @@
       <c r="W8" s="13"/>
     </row>
     <row r="9" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -2773,10 +2785,10 @@
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -2798,10 +2810,10 @@
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -2823,10 +2835,10 @@
       <c r="W11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -2848,10 +2860,10 @@
       <c r="W12" s="13"/>
     </row>
     <row r="13" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -2873,10 +2885,10 @@
       <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -2898,10 +2910,10 @@
       <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -2923,10 +2935,10 @@
       <c r="W15" s="13"/>
     </row>
     <row r="16" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -2948,10 +2960,10 @@
       <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -2973,10 +2985,10 @@
       <c r="W17" s="13"/>
     </row>
     <row r="18" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -2998,16 +3010,16 @@
       <c r="W18" s="13"/>
     </row>
     <row r="19" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="63">
         <v>75</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="63">
         <v>75</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="63">
         <v>0</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -3041,10 +3053,10 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="15" t="s">
         <v>34</v>
       </c>
@@ -3076,10 +3088,10 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="15" t="s">
         <v>35</v>
       </c>
@@ -3111,10 +3123,10 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="15" t="s">
         <v>36</v>
       </c>
@@ -3146,10 +3158,10 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="15" t="s">
         <v>37</v>
       </c>
@@ -3181,10 +3193,10 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="15" t="s">
         <v>38</v>
       </c>
@@ -3216,10 +3228,10 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="15" t="s">
         <v>39</v>
       </c>
@@ -3251,10 +3263,10 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="15" t="s">
         <v>40</v>
       </c>
@@ -3286,10 +3298,10 @@
       <c r="W26" s="20"/>
     </row>
     <row r="27" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="15" t="s">
         <v>41</v>
       </c>
@@ -3323,10 +3335,10 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="15" t="s">
         <v>42</v>
       </c>
@@ -3358,10 +3370,10 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="15" t="s">
         <v>43</v>
       </c>
@@ -3393,10 +3405,10 @@
       <c r="W29" s="20"/>
     </row>
     <row r="30" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="15" t="s">
         <v>44</v>
       </c>
@@ -3428,10 +3440,10 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="15" t="s">
         <v>45</v>
       </c>
@@ -3463,10 +3475,10 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="15" t="s">
         <v>46</v>
       </c>
@@ -3498,10 +3510,10 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="15" t="s">
         <v>47</v>
       </c>
@@ -3537,10 +3549,10 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="15" t="s">
         <v>48</v>
       </c>
@@ -3572,10 +3584,10 @@
       </c>
     </row>
     <row r="35" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="15" t="s">
         <v>49</v>
       </c>
@@ -3607,10 +3619,10 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="15" t="s">
         <v>50</v>
       </c>
@@ -3642,10 +3654,10 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="15" t="s">
         <v>51</v>
       </c>
@@ -3677,16 +3689,16 @@
       <c r="W37" s="23"/>
     </row>
     <row r="38" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="63">
         <v>75</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="63">
         <v>75</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="63">
         <v>0</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -3720,10 +3732,10 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="15" t="s">
         <v>54</v>
       </c>
@@ -3755,10 +3767,10 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="15" t="s">
         <v>55</v>
       </c>
@@ -3790,10 +3802,10 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="15" t="s">
         <v>56</v>
       </c>
@@ -3825,10 +3837,10 @@
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="15" t="s">
         <v>57</v>
       </c>
@@ -3860,10 +3872,10 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="15" t="s">
         <v>58</v>
       </c>
@@ -3895,10 +3907,10 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="15" t="s">
         <v>59</v>
       </c>
@@ -3930,10 +3942,10 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="15" t="s">
         <v>60</v>
       </c>
@@ -3962,13 +3974,13 @@
       </c>
       <c r="U45" s="23"/>
       <c r="V45" s="23"/>
-      <c r="W45" s="73"/>
+      <c r="W45" s="49"/>
     </row>
     <row r="46" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="15" t="s">
         <v>61</v>
       </c>
@@ -3994,16 +4006,16 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="72">
+      <c r="V46" s="48">
         <v>5</v>
       </c>
       <c r="W46" s="42"/>
     </row>
     <row r="47" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="15" t="s">
         <v>62</v>
       </c>
@@ -4029,10 +4041,10 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="23"/>
-      <c r="V47" s="72">
-        <v>5</v>
-      </c>
-      <c r="W47" s="74"/>
+      <c r="V47" s="48">
+        <v>5</v>
+      </c>
+      <c r="W47" s="50"/>
     </row>
     <row r="48" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
@@ -5410,31 +5422,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I1:W1"/>
+    <mergeCell ref="D19:D37"/>
+    <mergeCell ref="D38:D47"/>
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="C19:C37"/>
+    <mergeCell ref="C38:C47"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="A19:A37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B19:B37"/>
+    <mergeCell ref="B38:B47"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A19:A37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I1:W1"/>
-    <mergeCell ref="D19:D37"/>
-    <mergeCell ref="D38:D47"/>
-    <mergeCell ref="D4:D18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="C19:C37"/>
-    <mergeCell ref="C38:C47"/>
-    <mergeCell ref="B19:B37"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
   </mergeCells>
   <conditionalFormatting sqref="V47 I48:W102">
     <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
@@ -5522,135 +5534,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
     </row>
     <row r="2" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="52" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="47">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="46">
         <v>1</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <v>2</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <v>3</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="47">
-        <v>5</v>
-      </c>
-      <c r="N3" s="47">
+      <c r="M3" s="46">
+        <v>5</v>
+      </c>
+      <c r="N3" s="46">
         <v>6</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="46">
         <v>7</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="46">
         <v>8</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="46">
         <v>9</v>
       </c>
-      <c r="R3" s="47">
+      <c r="R3" s="46">
         <v>10</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="46">
         <v>11</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="46">
         <v>12</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="46">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="60">
+      <c r="A4" s="70"/>
+      <c r="B4" s="68">
         <v>0</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="66">
         <v>0</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="64">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -5672,10 +5684,10 @@
       <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -5695,10 +5707,10 @@
       <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -5718,10 +5730,10 @@
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="57"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -5741,10 +5753,10 @@
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -5764,10 +5776,10 @@
       <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -5787,10 +5799,10 @@
       <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -5810,10 +5822,10 @@
       <c r="U10" s="13"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -5833,10 +5845,10 @@
       <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -5856,10 +5868,10 @@
       <c r="U12" s="13"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -5879,10 +5891,10 @@
       <c r="U13" s="13"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -5902,10 +5914,10 @@
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -5925,10 +5937,10 @@
       <c r="U15" s="13"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -5948,10 +5960,10 @@
       <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -5971,10 +5983,10 @@
       <c r="U17" s="13"/>
     </row>
     <row r="18" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -5994,16 +6006,16 @@
       <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="63">
         <v>65</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="63">
         <v>65</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="63">
         <v>65</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -6035,10 +6047,10 @@
       <c r="U19" s="28"/>
     </row>
     <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="15" t="s">
         <v>64</v>
       </c>
@@ -6072,10 +6084,10 @@
       <c r="U20" s="28"/>
     </row>
     <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="15" t="s">
         <v>65</v>
       </c>
@@ -6105,10 +6117,10 @@
       <c r="U21" s="28"/>
     </row>
     <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="15" t="s">
         <v>66</v>
       </c>
@@ -6140,10 +6152,10 @@
       <c r="U22" s="28"/>
     </row>
     <row r="23" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="15" t="s">
         <v>67</v>
       </c>
@@ -6173,10 +6185,10 @@
       <c r="U23" s="28"/>
     </row>
     <row r="24" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="30" t="s">
         <v>68</v>
       </c>
@@ -6206,10 +6218,10 @@
       <c r="U24" s="28"/>
     </row>
     <row r="25" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="30" t="s">
         <v>69</v>
       </c>
@@ -6239,10 +6251,10 @@
       <c r="U25" s="28"/>
     </row>
     <row r="26" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="30" t="s">
         <v>70</v>
       </c>
@@ -6272,10 +6284,10 @@
       <c r="U26" s="28"/>
     </row>
     <row r="27" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="15" t="s">
         <v>71</v>
       </c>
@@ -6305,10 +6317,10 @@
       <c r="U27" s="28"/>
     </row>
     <row r="28" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="15" t="s">
         <v>72</v>
       </c>
@@ -6338,10 +6350,10 @@
       <c r="U28" s="28"/>
     </row>
     <row r="29" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="15" t="s">
         <v>73</v>
       </c>
@@ -6371,10 +6383,10 @@
       <c r="U29" s="28"/>
     </row>
     <row r="30" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="15" t="s">
         <v>74</v>
       </c>
@@ -6406,10 +6418,10 @@
       <c r="U30" s="28"/>
     </row>
     <row r="31" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="15" t="s">
         <v>75</v>
       </c>
@@ -6439,10 +6451,10 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="15" t="s">
         <v>76</v>
       </c>
@@ -6472,10 +6484,10 @@
       <c r="U32" s="28"/>
     </row>
     <row r="33" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="15" t="s">
         <v>77</v>
       </c>
@@ -6505,10 +6517,10 @@
       <c r="U33" s="28"/>
     </row>
     <row r="34" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="15" t="s">
         <v>78</v>
       </c>
@@ -6538,10 +6550,10 @@
       <c r="U34" s="28"/>
     </row>
     <row r="35" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="15" t="s">
         <v>79</v>
       </c>
@@ -6571,16 +6583,16 @@
       <c r="U35" s="28"/>
     </row>
     <row r="36" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="63">
         <v>50</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="63">
         <v>50</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="63">
         <v>0</v>
       </c>
       <c r="E36" s="15" t="s">
@@ -6612,10 +6624,10 @@
       <c r="U36" s="28"/>
     </row>
     <row r="37" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="15" t="s">
         <v>81</v>
       </c>
@@ -6645,10 +6657,10 @@
       <c r="U37" s="28"/>
     </row>
     <row r="38" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="15" t="s">
         <v>82</v>
       </c>
@@ -6678,10 +6690,10 @@
       <c r="U38" s="28"/>
     </row>
     <row r="39" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="15" t="s">
         <v>83</v>
       </c>
@@ -6713,10 +6725,10 @@
       <c r="U39" s="28"/>
     </row>
     <row r="40" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="15" t="s">
         <v>84</v>
       </c>
@@ -6748,10 +6760,10 @@
       <c r="U40" s="28"/>
     </row>
     <row r="41" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="15" t="s">
         <v>85</v>
       </c>
@@ -6781,10 +6793,10 @@
       <c r="U41" s="28"/>
     </row>
     <row r="42" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="15" t="s">
         <v>86</v>
       </c>
@@ -6816,10 +6828,10 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="15" t="s">
         <v>87</v>
       </c>
@@ -8116,6 +8128,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="C19:C35"/>
+    <mergeCell ref="D19:D35"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D18"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="I1:U1"/>
@@ -8128,19 +8153,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="N2:R2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:D18"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="C19:C35"/>
-    <mergeCell ref="D19:D35"/>
   </mergeCells>
   <conditionalFormatting sqref="I44:U98">
     <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
@@ -8227,147 +8239,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="52" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="75" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="77"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="47">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="46">
         <v>1</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <v>2</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <v>3</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="47">
-        <v>5</v>
-      </c>
-      <c r="N3" s="47">
+      <c r="M3" s="46">
+        <v>5</v>
+      </c>
+      <c r="N3" s="46">
         <v>6</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="46">
         <v>7</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="46">
         <v>8</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="46">
         <v>9</v>
       </c>
-      <c r="R3" s="47">
+      <c r="R3" s="46">
         <v>10</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="46">
         <v>11</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="46">
         <v>12</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="46">
         <v>13</v>
       </c>
-      <c r="V3" s="47">
+      <c r="V3" s="46">
         <v>14</v>
       </c>
-      <c r="W3" s="47">
+      <c r="W3" s="46">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="60">
+      <c r="A4" s="70"/>
+      <c r="B4" s="68">
         <v>0</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="66">
         <v>0</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="64">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -8391,10 +8403,10 @@
       <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -8416,10 +8428,10 @@
       <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -8441,10 +8453,10 @@
       <c r="W6" s="13"/>
     </row>
     <row r="7" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="57"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -8466,10 +8478,10 @@
       <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -8491,10 +8503,10 @@
       <c r="W8" s="13"/>
     </row>
     <row r="9" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -8516,10 +8528,10 @@
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -8541,10 +8553,10 @@
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -8566,10 +8578,10 @@
       <c r="W11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -8591,10 +8603,10 @@
       <c r="W12" s="13"/>
     </row>
     <row r="13" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -8616,10 +8628,10 @@
       <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -8641,10 +8653,10 @@
       <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -8666,10 +8678,10 @@
       <c r="W15" s="13"/>
     </row>
     <row r="16" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -8691,10 +8703,10 @@
       <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -8716,10 +8728,10 @@
       <c r="W17" s="13"/>
     </row>
     <row r="18" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -8741,16 +8753,16 @@
       <c r="W18" s="13"/>
     </row>
     <row r="19" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="63">
         <v>75</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="63">
         <v>75</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="63">
         <v>0</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -8790,10 +8802,10 @@
       <c r="W19" s="28"/>
     </row>
     <row r="20" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="15" t="s">
         <v>90</v>
       </c>
@@ -8827,10 +8839,10 @@
       <c r="W20" s="28"/>
     </row>
     <row r="21" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="15" t="s">
         <v>91</v>
       </c>
@@ -8862,10 +8874,10 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="15" t="s">
         <v>92</v>
       </c>
@@ -8899,10 +8911,10 @@
       <c r="W22" s="28"/>
     </row>
     <row r="23" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="15" t="s">
         <v>93</v>
       </c>
@@ -8936,10 +8948,10 @@
       <c r="W23" s="28"/>
     </row>
     <row r="24" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="15" t="s">
         <v>94</v>
       </c>
@@ -8971,10 +8983,10 @@
       <c r="W24" s="28"/>
     </row>
     <row r="25" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="15" t="s">
         <v>95</v>
       </c>
@@ -9008,10 +9020,10 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="15" t="s">
         <v>96</v>
       </c>
@@ -9045,10 +9057,10 @@
       <c r="W26" s="28"/>
     </row>
     <row r="27" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="15" t="s">
         <v>97</v>
       </c>
@@ -9080,16 +9092,16 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="63">
         <v>75</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="63">
         <v>75</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="63">
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -9123,10 +9135,10 @@
       <c r="W28" s="28"/>
     </row>
     <row r="29" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="15" t="s">
         <v>100</v>
       </c>
@@ -9158,10 +9170,10 @@
       <c r="W29" s="28"/>
     </row>
     <row r="30" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="15" t="s">
         <v>101</v>
       </c>
@@ -9193,10 +9205,10 @@
       <c r="W30" s="28"/>
     </row>
     <row r="31" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="15" t="s">
         <v>102</v>
       </c>
@@ -9228,10 +9240,10 @@
       <c r="W31" s="28"/>
     </row>
     <row r="32" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="15" t="s">
         <v>103</v>
       </c>
@@ -9263,10 +9275,10 @@
       <c r="W32" s="28"/>
     </row>
     <row r="33" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="15" t="s">
         <v>104</v>
       </c>
@@ -9300,10 +9312,10 @@
       <c r="W33" s="28"/>
     </row>
     <row r="34" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="15" t="s">
         <v>105</v>
       </c>
@@ -9335,10 +9347,10 @@
       <c r="W34" s="28"/>
     </row>
     <row r="35" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="15" t="s">
         <v>106</v>
       </c>
@@ -9370,10 +9382,10 @@
       <c r="W35" s="28"/>
     </row>
     <row r="36" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="15" t="s">
         <v>107</v>
       </c>
@@ -9405,10 +9417,10 @@
       <c r="W36" s="28"/>
     </row>
     <row r="37" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="31" t="s">
         <v>108</v>
       </c>
@@ -10815,6 +10827,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D18"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:O2"/>
@@ -10828,19 +10853,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:W1"/>
     <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:D18"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="I38:W92">
     <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
@@ -10927,157 +10939,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="52" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
     </row>
     <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="47">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="46">
         <v>1</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <v>2</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <v>3</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="47">
-        <v>5</v>
-      </c>
-      <c r="N3" s="47">
+      <c r="M3" s="46">
+        <v>5</v>
+      </c>
+      <c r="N3" s="46">
         <v>6</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="46">
         <v>7</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="46">
         <v>8</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="46">
         <v>9</v>
       </c>
-      <c r="R3" s="47">
+      <c r="R3" s="46">
         <v>10</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="46">
         <v>11</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="46">
         <v>12</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="46">
         <v>13</v>
       </c>
-      <c r="V3" s="47">
+      <c r="V3" s="46">
         <v>14</v>
       </c>
-      <c r="W3" s="47">
+      <c r="W3" s="46">
         <v>15</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="47">
         <v>16</v>
       </c>
-      <c r="Y3" s="48">
+      <c r="Y3" s="47">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="60">
+      <c r="A4" s="70"/>
+      <c r="B4" s="68">
         <v>0</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="66">
         <v>0</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="64">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -11103,10 +11115,10 @@
       <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -11130,10 +11142,10 @@
       <c r="Y5" s="13"/>
     </row>
     <row r="6" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -11157,10 +11169,10 @@
       <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="57"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -11184,10 +11196,10 @@
       <c r="Y7" s="13"/>
     </row>
     <row r="8" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -11211,10 +11223,10 @@
       <c r="Y8" s="13"/>
     </row>
     <row r="9" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -11238,10 +11250,10 @@
       <c r="Y9" s="13"/>
     </row>
     <row r="10" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -11265,10 +11277,10 @@
       <c r="Y10" s="13"/>
     </row>
     <row r="11" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -11292,10 +11304,10 @@
       <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -11319,10 +11331,10 @@
       <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -11346,10 +11358,10 @@
       <c r="Y13" s="13"/>
     </row>
     <row r="14" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -11373,10 +11385,10 @@
       <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -11400,10 +11412,10 @@
       <c r="Y15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -11427,10 +11439,10 @@
       <c r="Y16" s="13"/>
     </row>
     <row r="17" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -11454,10 +11466,10 @@
       <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -11481,16 +11493,16 @@
       <c r="Y18" s="13"/>
     </row>
     <row r="19" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="63">
         <v>45</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="63">
         <v>45</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="63">
         <v>45</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -11528,10 +11540,10 @@
       <c r="Y19" s="28"/>
     </row>
     <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="15" t="s">
         <v>111</v>
       </c>
@@ -11567,10 +11579,10 @@
       <c r="Y20" s="28"/>
     </row>
     <row r="21" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="15" t="s">
         <v>112</v>
       </c>
@@ -11604,10 +11616,10 @@
       <c r="Y21" s="28"/>
     </row>
     <row r="22" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="15" t="s">
         <v>113</v>
       </c>
@@ -11643,10 +11655,10 @@
       <c r="Y22" s="28"/>
     </row>
     <row r="23" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="15" t="s">
         <v>114</v>
       </c>
@@ -11680,10 +11692,10 @@
       <c r="Y23" s="28"/>
     </row>
     <row r="24" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="15" t="s">
         <v>115</v>
       </c>
@@ -11719,10 +11731,10 @@
       <c r="Y24" s="28"/>
     </row>
     <row r="25" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="15" t="s">
         <v>116</v>
       </c>
@@ -11756,10 +11768,10 @@
       <c r="Y25" s="28"/>
     </row>
     <row r="26" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="15" t="s">
         <v>117</v>
       </c>
@@ -11793,10 +11805,10 @@
       <c r="Y26" s="28"/>
     </row>
     <row r="27" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="15" t="s">
         <v>118</v>
       </c>
@@ -11830,10 +11842,10 @@
       <c r="Y27" s="28"/>
     </row>
     <row r="28" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="15" t="s">
         <v>119</v>
       </c>
@@ -11871,16 +11883,16 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="63">
         <v>40</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="63">
         <v>40</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="63">
         <v>0</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -11918,10 +11930,10 @@
       <c r="Y29" s="28"/>
     </row>
     <row r="30" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="15" t="s">
         <v>122</v>
       </c>
@@ -11955,10 +11967,10 @@
       <c r="Y30" s="28"/>
     </row>
     <row r="31" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="15" t="s">
         <v>123</v>
       </c>
@@ -11994,10 +12006,10 @@
       <c r="Y31" s="28"/>
     </row>
     <row r="32" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="15" t="s">
         <v>124</v>
       </c>
@@ -12037,10 +12049,10 @@
       <c r="Y32" s="28"/>
     </row>
     <row r="33" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="15" t="s">
         <v>125</v>
       </c>
@@ -12074,10 +12086,10 @@
       <c r="Y33" s="28"/>
     </row>
     <row r="34" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="15" t="s">
         <v>126</v>
       </c>
@@ -12111,10 +12123,10 @@
       <c r="Y34" s="28"/>
     </row>
     <row r="35" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="15" t="s">
         <v>127</v>
       </c>
@@ -12148,16 +12160,16 @@
       <c r="Y35" s="28"/>
     </row>
     <row r="36" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="63">
         <v>35</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="63">
         <v>35</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="63">
         <v>0</v>
       </c>
       <c r="E36" s="15" t="s">
@@ -12193,10 +12205,10 @@
       <c r="Y36" s="28"/>
     </row>
     <row r="37" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="31" t="s">
         <v>130</v>
       </c>
@@ -12230,10 +12242,10 @@
       <c r="Y37" s="28"/>
     </row>
     <row r="38" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="15" t="s">
         <v>131</v>
       </c>
@@ -12267,10 +12279,10 @@
       <c r="Y38" s="28"/>
     </row>
     <row r="39" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="15" t="s">
         <v>132</v>
       </c>
@@ -12306,10 +12318,10 @@
       <c r="Y39" s="28"/>
     </row>
     <row r="40" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="15" t="s">
         <v>133</v>
       </c>
@@ -12343,10 +12355,10 @@
       <c r="Y40" s="28"/>
     </row>
     <row r="41" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="15" t="s">
         <v>106</v>
       </c>
@@ -13731,11 +13743,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -13748,16 +13760,16 @@
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="C19:C28"/>
     <mergeCell ref="D19:D28"/>
-    <mergeCell ref="I1:Y1"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="C29:C35"/>
     <mergeCell ref="D29:D35"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="I1:Y1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -13830,9 +13842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13847,118 +13859,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="52" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="47">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="46">
         <v>1</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <v>2</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <v>3</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="47">
-        <v>5</v>
-      </c>
-      <c r="N3" s="47">
+      <c r="M3" s="46">
+        <v>5</v>
+      </c>
+      <c r="N3" s="46">
         <v>6</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="46">
         <v>7</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="46">
         <v>8</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="46">
         <v>9</v>
       </c>
-      <c r="R3" s="47">
+      <c r="R3" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="60">
+      <c r="A4" s="70"/>
+      <c r="B4" s="68">
         <v>0</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="66">
         <v>0</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="64">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -13977,10 +13989,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -13997,10 +14009,10 @@
       <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -14017,10 +14029,10 @@
       <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="57"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -14037,10 +14049,10 @@
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -14057,10 +14069,10 @@
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -14077,10 +14089,10 @@
       <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -14097,10 +14109,10 @@
       <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -14117,10 +14129,10 @@
       <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -14137,10 +14149,10 @@
       <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -14157,10 +14169,10 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -14177,10 +14189,10 @@
       <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -14197,10 +14209,10 @@
       <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -14217,10 +14229,10 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -14237,10 +14249,10 @@
       <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -14257,16 +14269,16 @@
       <c r="R18" s="13"/>
     </row>
     <row r="19" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="63">
         <v>20</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="63">
         <v>20</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="63">
         <v>0</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -14288,17 +14300,17 @@
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
-      <c r="N19" s="46"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="44"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="15" t="s">
         <v>136</v>
       </c>
@@ -14318,17 +14330,17 @@
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
-      <c r="N20" s="46"/>
+      <c r="N20" s="45"/>
       <c r="O20" s="44"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
     </row>
     <row r="21" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="15" t="s">
         <v>137</v>
       </c>
@@ -14350,17 +14362,17 @@
       </c>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
-      <c r="N21" s="46"/>
+      <c r="N21" s="45"/>
       <c r="O21" s="44"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="15" t="s">
         <v>138</v>
       </c>
@@ -14380,23 +14392,23 @@
         <v>5</v>
       </c>
       <c r="M22" s="42"/>
-      <c r="N22" s="46"/>
+      <c r="N22" s="45"/>
       <c r="O22" s="44"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
       <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="63">
         <v>15</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="63">
         <v>15</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="63">
         <v>15</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -14415,22 +14427,22 @@
       <c r="J23" s="43"/>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="42">
-        <v>5</v>
-      </c>
-      <c r="N23" s="45">
-        <v>5</v>
-      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="44"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
+      <c r="P23" s="42">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="42">
+        <v>5</v>
+      </c>
       <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="15" t="s">
         <v>141</v>
       </c>
@@ -14448,19 +14460,19 @@
       <c r="K24" s="42"/>
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="44">
-        <v>5</v>
-      </c>
+      <c r="N24" s="45"/>
+      <c r="O24" s="78"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="R24" s="42">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="15" t="s">
         <v>142</v>
       </c>
@@ -14478,25 +14490,25 @@
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="44">
-        <v>5</v>
-      </c>
+      <c r="N25" s="45"/>
+      <c r="O25" s="44"/>
       <c r="P25" s="42"/>
       <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
+      <c r="R25" s="42">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="63">
         <v>15</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="63">
         <v>15</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="63">
         <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -14515,20 +14527,20 @@
       <c r="J26" s="43"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="46"/>
+      <c r="M26" s="42">
+        <v>3</v>
+      </c>
+      <c r="N26" s="45"/>
       <c r="O26" s="44"/>
-      <c r="P26" s="42">
-        <v>3</v>
-      </c>
+      <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
     </row>
     <row r="27" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="15" t="s">
         <v>145</v>
       </c>
@@ -14545,22 +14557,22 @@
       <c r="J27" s="43"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="46"/>
+      <c r="M27" s="42">
+        <v>2</v>
+      </c>
+      <c r="N27" s="79">
+        <v>1</v>
+      </c>
       <c r="O27" s="44"/>
-      <c r="P27" s="42">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="42">
-        <v>1</v>
-      </c>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="15" t="s">
         <v>146</v>
       </c>
@@ -14578,19 +14590,19 @@
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
-      <c r="N28" s="46"/>
+      <c r="N28" s="79">
+        <v>3</v>
+      </c>
       <c r="O28" s="44"/>
       <c r="P28" s="42"/>
-      <c r="Q28" s="42">
-        <v>3</v>
-      </c>
+      <c r="Q28" s="42"/>
       <c r="R28" s="42"/>
     </row>
     <row r="29" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="15" t="s">
         <v>147</v>
       </c>
@@ -14608,21 +14620,21 @@
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="44"/>
+      <c r="N29" s="79">
+        <v>1</v>
+      </c>
+      <c r="O29" s="44">
+        <v>2</v>
+      </c>
       <c r="P29" s="42"/>
-      <c r="Q29" s="42">
-        <v>1</v>
-      </c>
-      <c r="R29" s="42">
-        <v>2</v>
-      </c>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="15" t="s">
         <v>148</v>
       </c>
@@ -14640,13 +14652,13 @@
       <c r="K30" s="42"/>
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="44"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="44">
+        <v>3</v>
+      </c>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
-      <c r="R30" s="42">
-        <v>3</v>
-      </c>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
@@ -15789,19 +15801,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:D18"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="D26:D30"/>
@@ -15817,6 +15816,19 @@
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I19:M30 O19:R30">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">

--- a/ScrumBacklog/Sprint backlog.xlsx
+++ b/ScrumBacklog/Sprint backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="4"/>
@@ -33,6 +33,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tutorial:
 Before the sprint, update the total working hours ("daily burnout") per day in row 31 columns I-V. For example, give 0 for sundays (if no one's working)
@@ -53,6 +54,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The estimated time can be updated whenever necessary (e.g. "how many more hours do I need to complete this taks?"). Changes will be reflected in the burndown chart.
 Once a task is completed, the time spent (yellow boxes) MUST match the estimated, i.e., the estimation will corresponding to the total of hours spent on that task. </t>
@@ -66,6 +68,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula
 =SUM(F3:F17)</t>
@@ -79,6 +82,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">formula
 =IF(B3&lt;SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),B3)
@@ -93,6 +97,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula:
 =IF(C3&gt;B3,$C3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)),$B3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)))</t>
@@ -116,6 +121,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tutorial:
 Before the sprint, update the total working hours ("daily burnout") per day in row 31 columns I-V. For example, give 0 for sundays (if no one's working)
@@ -136,6 +142,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The estimated time can be updated whenever necessary (e.g. "how many more hours do I need to complete this taks?"). Changes will be reflected in the burndown chart.
 Once a task is completed, the time spent (yellow boxes) MUST match the estimated, i.e., the estimation will corresponding to the total of hours spent on that task. </t>
@@ -149,6 +156,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula
 =SUM(F3:F17)</t>
@@ -162,6 +170,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">formula
 =IF(B3&lt;SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),B3)
@@ -176,6 +185,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula:
 =IF(C3&gt;B3,$C3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)),$B3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)))</t>
@@ -199,6 +209,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tutorial:
 Before the sprint, update the total working hours ("daily burnout") per day in row 31 columns I-V. For example, give 0 for sundays (if no one's working)
@@ -219,6 +230,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The estimated time can be updated whenever necessary (e.g. "how many more hours do I need to complete this taks?"). Changes will be reflected in the burndown chart.
 Once a task is completed, the time spent (yellow boxes) MUST match the estimated, i.e., the estimation will corresponding to the total of hours spent on that task. </t>
@@ -232,6 +244,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula
 =SUM(F3:F17)</t>
@@ -245,6 +258,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">formula
 =IF(B3&lt;SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),B3)
@@ -259,6 +273,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula:
 =IF(C3&gt;B3,$C3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)),$B3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)))</t>
@@ -282,6 +297,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tutorial:
 Before the sprint, update the total working hours ("daily burnout") per day in row 31 columns I-V. For example, give 0 for sundays (if no one's working)
@@ -302,6 +318,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The estimated time can be updated whenever necessary (e.g. "how many more hours do I need to complete this taks?"). Changes will be reflected in the burndown chart.
 Once a task is completed, the time spent (yellow boxes) MUST match the estimated, i.e., the estimation will corresponding to the total of hours spent on that task. </t>
@@ -315,6 +332,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula
 =SUM(F3:F17)</t>
@@ -328,6 +346,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">formula
 =IF(B3&lt;SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),B3)
@@ -342,6 +361,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula:
 =IF(C3&gt;B3,$C3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)),$B3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)))</t>
@@ -365,6 +385,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tutorial:
 Before the sprint, update the total working hours ("daily burnout") per day in row 31 columns I-V. For example, give 0 for sundays (if no one's working)
@@ -385,6 +406,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The estimated time can be updated whenever necessary (e.g. "how many more hours do I need to complete this taks?"). Changes will be reflected in the burndown chart.
 Once a task is completed, the time spent (yellow boxes) MUST match the estimated, i.e., the estimation will corresponding to the total of hours spent on that task. </t>
@@ -398,6 +420,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula
 =SUM(F3:F17)</t>
@@ -411,6 +434,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">formula
 =IF(B3&lt;SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17),B3)
@@ -425,6 +449,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>formula:
 =IF(C3&gt;B3,$C3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)),$B3-(SUM(I3:I17, J3:J17, K3:K17,L3:L17,M3:M17,N3:N17,O3:O17,P3:P17,Q3:Q17,R3:R17,S3:S17,T3:T17,U3:U17,V3:V17)))</t>
@@ -718,10 +743,6 @@
     <t>Defining hand sign to control the system</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Recognizing the control hand sign </t>
-  </si>
-  <si>
     <t>Implementing operations of function</t>
   </si>
   <si>
@@ -792,10 +813,6 @@
   </si>
   <si>
     <t>Improving background - hand color subtraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Capturing new database </t>
   </si>
   <si>
     <t>Testing recognition hand sign</t>
@@ -932,13 +949,19 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recognizing the control hand sign </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capturing new database </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -947,63 +970,80 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF274E13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF274E13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF274E13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF274E13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1258,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1403,46 +1443,19 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1450,6 +1463,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1463,6 +1482,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1472,11 +1518,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1487,17 +1536,29 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2482,8 +2543,8 @@
   <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2498,90 +2559,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
+      <c r="I1" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="62" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="46">
         <v>1</v>
       </c>
@@ -2629,14 +2690,14 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="68">
+      <c r="A4" s="72"/>
+      <c r="B4" s="70">
         <v>0</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="59">
         <v>0</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="57">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -2660,10 +2721,10 @@
       <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -2685,10 +2746,10 @@
       <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -2710,10 +2771,10 @@
       <c r="W6" s="13"/>
     </row>
     <row r="7" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -2735,10 +2796,10 @@
       <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -2760,10 +2821,10 @@
       <c r="W8" s="13"/>
     </row>
     <row r="9" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -2785,10 +2846,10 @@
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -2810,10 +2871,10 @@
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -2835,10 +2896,10 @@
       <c r="W11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -2860,10 +2921,10 @@
       <c r="W12" s="13"/>
     </row>
     <row r="13" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -2885,10 +2946,10 @@
       <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -2910,10 +2971,10 @@
       <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -2935,10 +2996,10 @@
       <c r="W15" s="13"/>
     </row>
     <row r="16" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -2960,10 +3021,10 @@
       <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -2985,10 +3046,10 @@
       <c r="W17" s="13"/>
     </row>
     <row r="18" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -3009,17 +3070,17 @@
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
     </row>
-    <row r="19" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+    <row r="19" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="54">
         <v>75</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="54">
         <v>75</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="54">
         <v>0</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -3038,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="21"/>
@@ -3052,11 +3113,11 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+    <row r="20" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="15" t="s">
         <v>34</v>
       </c>
@@ -3070,11 +3131,11 @@
         <v>5</v>
       </c>
       <c r="I20" s="18"/>
-      <c r="J20" s="18">
-        <v>5</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="J20" s="84">
+        <v>5</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="20"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
@@ -3087,11 +3148,11 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
     </row>
-    <row r="21" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+    <row r="21" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="15" t="s">
         <v>35</v>
       </c>
@@ -3106,7 +3167,7 @@
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="23">
+      <c r="K21" s="86">
         <v>5</v>
       </c>
       <c r="L21" s="20"/>
@@ -3122,11 +3183,11 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+    <row r="22" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="15" t="s">
         <v>36</v>
       </c>
@@ -3157,11 +3218,11 @@
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+    <row r="23" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="15" t="s">
         <v>37</v>
       </c>
@@ -3193,10 +3254,10 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="15" t="s">
         <v>38</v>
       </c>
@@ -3228,10 +3289,10 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="15" t="s">
         <v>39</v>
       </c>
@@ -3263,10 +3324,10 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="15" t="s">
         <v>40</v>
       </c>
@@ -3297,11 +3358,11 @@
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
     </row>
-    <row r="27" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+    <row r="27" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="15" t="s">
         <v>41</v>
       </c>
@@ -3314,31 +3375,31 @@
       <c r="H27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="23">
-        <v>5</v>
-      </c>
-      <c r="R27" s="23">
-        <v>5</v>
-      </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-    </row>
-    <row r="28" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="48">
+        <v>5</v>
+      </c>
+      <c r="R27" s="48">
+        <v>5</v>
+      </c>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+    </row>
+    <row r="28" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="15" t="s">
         <v>42</v>
       </c>
@@ -3348,32 +3409,32 @@
       <c r="G28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="26">
-        <v>5</v>
-      </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-    </row>
-    <row r="29" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="H28" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="82">
+        <v>5</v>
+      </c>
+      <c r="O28" s="83"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+    </row>
+    <row r="29" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="15" t="s">
         <v>43</v>
       </c>
@@ -3383,32 +3444,32 @@
       <c r="G29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="26">
-        <v>5</v>
-      </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-    </row>
-    <row r="30" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="H29" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="82">
+        <v>5</v>
+      </c>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+    </row>
+    <row r="30" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="15" t="s">
         <v>44</v>
       </c>
@@ -3418,32 +3479,32 @@
       <c r="G30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="24">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-    </row>
-    <row r="31" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="H30" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+    </row>
+    <row r="31" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="15" t="s">
         <v>45</v>
       </c>
@@ -3453,32 +3514,32 @@
       <c r="G31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23">
-        <v>5</v>
-      </c>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-    </row>
-    <row r="32" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
+      <c r="H31" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42">
+        <v>5</v>
+      </c>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+    </row>
+    <row r="32" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="15" t="s">
         <v>46</v>
       </c>
@@ -3488,32 +3549,32 @@
       <c r="G32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23">
-        <v>5</v>
-      </c>
-      <c r="U32" s="23"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
+      <c r="H32" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42">
+        <v>5</v>
+      </c>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
     </row>
     <row r="33" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="15" t="s">
         <v>47</v>
       </c>
@@ -3523,36 +3584,36 @@
       <c r="G33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="18" t="s">
+      <c r="H33" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23">
-        <v>5</v>
-      </c>
-      <c r="V33" s="23">
-        <v>5</v>
-      </c>
-      <c r="W33" s="20"/>
-    </row>
-    <row r="34" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42">
+        <v>5</v>
+      </c>
+      <c r="V33" s="42">
+        <v>5</v>
+      </c>
+      <c r="W33" s="42"/>
+    </row>
+    <row r="34" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="15" t="s">
         <v>48</v>
       </c>
@@ -3562,32 +3623,32 @@
       <c r="G34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="H34" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="15" t="s">
         <v>49</v>
       </c>
@@ -3597,32 +3658,32 @@
       <c r="G35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23">
-        <v>5</v>
-      </c>
-      <c r="T35" s="20"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
+      <c r="H35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42">
+        <v>5</v>
+      </c>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
     </row>
     <row r="36" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="15" t="s">
         <v>50</v>
       </c>
@@ -3632,32 +3693,32 @@
       <c r="G36" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23">
-        <v>5</v>
-      </c>
-      <c r="U36" s="20"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="20"/>
+      <c r="H36" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42">
+        <v>5</v>
+      </c>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
     </row>
     <row r="37" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="15" t="s">
         <v>51</v>
       </c>
@@ -3667,38 +3728,38 @@
       <c r="G37" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23">
-        <v>5</v>
-      </c>
-      <c r="V37" s="20"/>
-      <c r="W37" s="23"/>
-    </row>
-    <row r="38" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="55" t="s">
+      <c r="H37" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42">
+        <v>5</v>
+      </c>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+    </row>
+    <row r="38" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="54">
         <v>75</v>
       </c>
-      <c r="C38" s="63">
+      <c r="C38" s="54">
         <v>75</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="54">
         <v>0</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -3710,32 +3771,32 @@
       <c r="G38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="26">
-        <v>5</v>
-      </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-    </row>
-    <row r="39" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="H38" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="82">
+        <v>5</v>
+      </c>
+      <c r="O38" s="83"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+    </row>
+    <row r="39" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="15" t="s">
         <v>54</v>
       </c>
@@ -3745,32 +3806,32 @@
       <c r="G39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="26">
+      <c r="H39" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="82">
         <v>2</v>
       </c>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-    </row>
-    <row r="40" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+    </row>
+    <row r="40" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="15" t="s">
         <v>55</v>
       </c>
@@ -3780,32 +3841,32 @@
       <c r="G40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="26">
+      <c r="H40" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="82">
         <v>3</v>
       </c>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-    </row>
-    <row r="41" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+    </row>
+    <row r="41" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="15" t="s">
         <v>56</v>
       </c>
@@ -3815,32 +3876,32 @@
       <c r="G41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="24">
+      <c r="H41" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="44">
         <v>3</v>
       </c>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-    </row>
-    <row r="42" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+    </row>
+    <row r="42" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="15" t="s">
         <v>57</v>
       </c>
@@ -3850,32 +3911,32 @@
       <c r="G42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="23">
-        <v>5</v>
-      </c>
-      <c r="R42" s="23"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
+      <c r="H42" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="42">
+        <v>5</v>
+      </c>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
     </row>
     <row r="43" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="15" t="s">
         <v>58</v>
       </c>
@@ -3885,32 +3946,32 @@
       <c r="G43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="23">
-        <v>5</v>
-      </c>
-      <c r="S43" s="23"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
+      <c r="H43" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42">
+        <v>5</v>
+      </c>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
     </row>
     <row r="44" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="15" t="s">
         <v>59</v>
       </c>
@@ -3920,32 +3981,32 @@
       <c r="G44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="23">
-        <v>5</v>
-      </c>
-      <c r="T44" s="23"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-    </row>
-    <row r="45" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="H44" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42">
+        <v>5</v>
+      </c>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+    </row>
+    <row r="45" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="15" t="s">
         <v>60</v>
       </c>
@@ -3955,32 +4016,32 @@
       <c r="G45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="23">
-        <v>5</v>
-      </c>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="49"/>
-    </row>
-    <row r="46" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+      <c r="H45" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42">
+        <v>5</v>
+      </c>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+    </row>
+    <row r="46" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="15" t="s">
         <v>61</v>
       </c>
@@ -3990,32 +4051,32 @@
       <c r="G46" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="48">
+      <c r="H46" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42">
         <v>5</v>
       </c>
       <c r="W46" s="42"/>
     </row>
-    <row r="47" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
+    <row r="47" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="15" t="s">
         <v>62</v>
       </c>
@@ -4025,26 +4086,26 @@
       <c r="G47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="48">
-        <v>5</v>
-      </c>
-      <c r="W47" s="50"/>
+      <c r="H47" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42">
+        <v>5</v>
+      </c>
+      <c r="W47" s="49"/>
     </row>
     <row r="48" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
@@ -5422,17 +5483,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I1:W1"/>
-    <mergeCell ref="D19:D37"/>
-    <mergeCell ref="D38:D47"/>
-    <mergeCell ref="D4:D18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="C19:C37"/>
-    <mergeCell ref="C38:C47"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
     <mergeCell ref="A19:A37"/>
     <mergeCell ref="A38:A47"/>
     <mergeCell ref="A1:A2"/>
@@ -5447,6 +5497,17 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:W1"/>
+    <mergeCell ref="D19:D37"/>
+    <mergeCell ref="D38:D47"/>
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="C19:C37"/>
+    <mergeCell ref="C38:C47"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
   </mergeCells>
   <conditionalFormatting sqref="V47 I48:W102">
     <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
@@ -5519,7 +5580,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A35"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5534,86 +5595,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+    </row>
+    <row r="2" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-    </row>
-    <row r="2" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="62" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="46">
         <v>1</v>
       </c>
@@ -5655,14 +5716,14 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="68">
+      <c r="A4" s="72"/>
+      <c r="B4" s="70">
         <v>0</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="59">
         <v>0</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="57">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -5684,10 +5745,10 @@
       <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -5707,10 +5768,10 @@
       <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -5730,10 +5791,10 @@
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -5753,10 +5814,10 @@
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -5776,10 +5837,10 @@
       <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -5799,10 +5860,10 @@
       <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -5822,10 +5883,10 @@
       <c r="U10" s="13"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -5845,10 +5906,10 @@
       <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -5868,10 +5929,10 @@
       <c r="U12" s="13"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -5891,10 +5952,10 @@
       <c r="U13" s="13"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -5914,10 +5975,10 @@
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -5937,10 +5998,10 @@
       <c r="U15" s="13"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -5960,10 +6021,10 @@
       <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -5983,10 +6044,10 @@
       <c r="U17" s="13"/>
     </row>
     <row r="18" spans="1:21" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -6006,16 +6067,16 @@
       <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="63">
+      <c r="A19" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="54">
         <v>65</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="54">
         <v>65</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="54">
         <v>65</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -6046,11 +6107,11 @@
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
     </row>
-    <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+    <row r="20" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="15" t="s">
         <v>64</v>
       </c>
@@ -6083,11 +6144,11 @@
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
     </row>
-    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+    <row r="21" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="15" t="s">
         <v>65</v>
       </c>
@@ -6117,10 +6178,10 @@
       <c r="U21" s="28"/>
     </row>
     <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="15" t="s">
         <v>66</v>
       </c>
@@ -6152,10 +6213,10 @@
       <c r="U22" s="28"/>
     </row>
     <row r="23" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="15" t="s">
         <v>67</v>
       </c>
@@ -6184,11 +6245,11 @@
       <c r="T23" s="28"/>
       <c r="U23" s="28"/>
     </row>
-    <row r="24" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+    <row r="24" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="30" t="s">
         <v>68</v>
       </c>
@@ -6217,11 +6278,11 @@
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
     </row>
-    <row r="25" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+    <row r="25" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="30" t="s">
         <v>69</v>
       </c>
@@ -6250,11 +6311,11 @@
       <c r="T25" s="28"/>
       <c r="U25" s="28"/>
     </row>
-    <row r="26" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+    <row r="26" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="30" t="s">
         <v>70</v>
       </c>
@@ -6284,10 +6345,10 @@
       <c r="U26" s="28"/>
     </row>
     <row r="27" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="15" t="s">
         <v>71</v>
       </c>
@@ -6316,11 +6377,11 @@
       <c r="T27" s="28"/>
       <c r="U27" s="28"/>
     </row>
-    <row r="28" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
+    <row r="28" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="15" t="s">
         <v>72</v>
       </c>
@@ -6350,10 +6411,10 @@
       <c r="U28" s="28"/>
     </row>
     <row r="29" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="15" t="s">
         <v>73</v>
       </c>
@@ -6383,10 +6444,10 @@
       <c r="U29" s="28"/>
     </row>
     <row r="30" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="15" t="s">
         <v>74</v>
       </c>
@@ -6418,10 +6479,10 @@
       <c r="U30" s="28"/>
     </row>
     <row r="31" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="15" t="s">
         <v>75</v>
       </c>
@@ -6451,10 +6512,10 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="15" t="s">
         <v>76</v>
       </c>
@@ -6483,11 +6544,11 @@
       <c r="T32" s="28"/>
       <c r="U32" s="28"/>
     </row>
-    <row r="33" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+    <row r="33" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="15" t="s">
         <v>77</v>
       </c>
@@ -6517,10 +6578,10 @@
       <c r="U33" s="28"/>
     </row>
     <row r="34" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="15" t="s">
         <v>78</v>
       </c>
@@ -6550,10 +6611,10 @@
       <c r="U34" s="28"/>
     </row>
     <row r="35" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="15" t="s">
         <v>79</v>
       </c>
@@ -6582,17 +6643,17 @@
       <c r="T35" s="28"/>
       <c r="U35" s="28"/>
     </row>
-    <row r="36" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="63">
+    <row r="36" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="54">
         <v>50</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="54">
         <v>50</v>
       </c>
-      <c r="D36" s="63">
+      <c r="D36" s="54">
         <v>0</v>
       </c>
       <c r="E36" s="15" t="s">
@@ -6623,11 +6684,11 @@
       <c r="T36" s="28"/>
       <c r="U36" s="28"/>
     </row>
-    <row r="37" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+    <row r="37" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="15" t="s">
         <v>81</v>
       </c>
@@ -6656,11 +6717,11 @@
       <c r="T37" s="28"/>
       <c r="U37" s="28"/>
     </row>
-    <row r="38" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+    <row r="38" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="15" t="s">
         <v>82</v>
       </c>
@@ -6689,11 +6750,11 @@
       <c r="T38" s="28"/>
       <c r="U38" s="28"/>
     </row>
-    <row r="39" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+    <row r="39" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="15" t="s">
         <v>83</v>
       </c>
@@ -6724,11 +6785,11 @@
       <c r="T39" s="28"/>
       <c r="U39" s="28"/>
     </row>
-    <row r="40" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+    <row r="40" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="15" t="s">
         <v>84</v>
       </c>
@@ -6759,11 +6820,11 @@
       <c r="T40" s="28"/>
       <c r="U40" s="28"/>
     </row>
-    <row r="41" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+    <row r="41" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="15" t="s">
         <v>85</v>
       </c>
@@ -6792,11 +6853,11 @@
       <c r="T41" s="28"/>
       <c r="U41" s="28"/>
     </row>
-    <row r="42" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
+    <row r="42" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="15" t="s">
         <v>86</v>
       </c>
@@ -6827,11 +6888,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
+    <row r="43" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="15" t="s">
         <v>87</v>
       </c>
@@ -8128,19 +8189,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="B19:B35"/>
-    <mergeCell ref="C19:C35"/>
-    <mergeCell ref="D19:D35"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:D18"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="I1:U1"/>
@@ -8153,6 +8201,19 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="N2:R2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="C19:C35"/>
+    <mergeCell ref="D19:D35"/>
   </mergeCells>
   <conditionalFormatting sqref="I44:U98">
     <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
@@ -8223,8 +8284,8 @@
   <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8239,92 +8300,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
+      <c r="I1" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="62" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="V2" s="74"/>
-      <c r="W2" s="75"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="46">
         <v>1</v>
       </c>
@@ -8372,14 +8433,14 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="68">
+      <c r="A4" s="72"/>
+      <c r="B4" s="70">
         <v>0</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="59">
         <v>0</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="57">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -8403,10 +8464,10 @@
       <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -8428,10 +8489,10 @@
       <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -8453,10 +8514,10 @@
       <c r="W6" s="13"/>
     </row>
     <row r="7" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -8478,10 +8539,10 @@
       <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -8503,10 +8564,10 @@
       <c r="W8" s="13"/>
     </row>
     <row r="9" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -8528,10 +8589,10 @@
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -8553,10 +8614,10 @@
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -8578,10 +8639,10 @@
       <c r="W11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -8603,10 +8664,10 @@
       <c r="W12" s="13"/>
     </row>
     <row r="13" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -8628,10 +8689,10 @@
       <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -8653,10 +8714,10 @@
       <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -8678,10 +8739,10 @@
       <c r="W15" s="13"/>
     </row>
     <row r="16" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -8703,10 +8764,10 @@
       <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -8728,10 +8789,10 @@
       <c r="W17" s="13"/>
     </row>
     <row r="18" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -8752,17 +8813,17 @@
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
     </row>
-    <row r="19" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+    <row r="19" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="54">
         <v>75</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="54">
         <v>75</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="54">
         <v>0</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -8802,10 +8863,10 @@
       <c r="W19" s="28"/>
     </row>
     <row r="20" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="15" t="s">
         <v>90</v>
       </c>
@@ -8838,11 +8899,11 @@
       <c r="V20" s="28"/>
       <c r="W20" s="28"/>
     </row>
-    <row r="21" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+    <row r="21" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="15" t="s">
         <v>91</v>
       </c>
@@ -8873,13 +8934,13 @@
       <c r="V21" s="28"/>
       <c r="W21" s="28"/>
     </row>
-    <row r="22" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+    <row r="22" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="15" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="F22" s="34">
         <v>10</v>
@@ -8911,12 +8972,12 @@
       <c r="W22" s="28"/>
     </row>
     <row r="23" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="34">
         <v>10</v>
@@ -8948,12 +9009,12 @@
       <c r="W23" s="28"/>
     </row>
     <row r="24" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="34">
         <v>5</v>
@@ -8983,12 +9044,12 @@
       <c r="W24" s="28"/>
     </row>
     <row r="25" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="34">
         <v>5</v>
@@ -9019,13 +9080,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+    <row r="26" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="34">
         <v>10</v>
@@ -9056,13 +9117,13 @@
       </c>
       <c r="W26" s="28"/>
     </row>
-    <row r="27" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+    <row r="27" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="34">
         <v>5</v>
@@ -9092,20 +9153,20 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="54">
+        <v>75</v>
+      </c>
+      <c r="C28" s="54">
+        <v>75</v>
+      </c>
+      <c r="D28" s="54">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="B28" s="63">
-        <v>75</v>
-      </c>
-      <c r="C28" s="63">
-        <v>75</v>
-      </c>
-      <c r="D28" s="63">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="F28" s="34">
         <v>5</v>
@@ -9135,12 +9196,12 @@
       <c r="W28" s="28"/>
     </row>
     <row r="29" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="34">
         <v>5</v>
@@ -9170,12 +9231,12 @@
       <c r="W29" s="28"/>
     </row>
     <row r="30" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="34">
         <v>5</v>
@@ -9205,12 +9266,12 @@
       <c r="W30" s="28"/>
     </row>
     <row r="31" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="34">
         <v>5</v>
@@ -9240,12 +9301,12 @@
       <c r="W31" s="28"/>
     </row>
     <row r="32" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="34">
         <v>5</v>
@@ -9275,12 +9336,12 @@
       <c r="W32" s="28"/>
     </row>
     <row r="33" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="34">
         <v>10</v>
@@ -9312,12 +9373,12 @@
       <c r="W33" s="28"/>
     </row>
     <row r="34" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="34">
         <v>5</v>
@@ -9347,12 +9408,12 @@
       <c r="W34" s="28"/>
     </row>
     <row r="35" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="34">
         <v>5</v>
@@ -9382,12 +9443,12 @@
       <c r="W35" s="28"/>
     </row>
     <row r="36" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="34">
         <v>5</v>
@@ -9417,12 +9478,12 @@
       <c r="W36" s="28"/>
     </row>
     <row r="37" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="34">
         <v>5</v>
@@ -10827,19 +10888,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:D18"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:O2"/>
@@ -10853,6 +10901,19 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:W1"/>
     <mergeCell ref="U2:W2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="I38:W92">
     <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
@@ -10923,8 +10984,8 @@
   <dimension ref="A1:Y91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:A41"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10939,96 +11000,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
+      <c r="I1" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="62" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62" t="s">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="46">
         <v>1</v>
       </c>
@@ -11082,14 +11143,14 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="68">
+      <c r="A4" s="72"/>
+      <c r="B4" s="70">
         <v>0</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="59">
         <v>0</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="57">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -11115,10 +11176,10 @@
       <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -11142,10 +11203,10 @@
       <c r="Y5" s="13"/>
     </row>
     <row r="6" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -11169,10 +11230,10 @@
       <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -11196,10 +11257,10 @@
       <c r="Y7" s="13"/>
     </row>
     <row r="8" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -11223,10 +11284,10 @@
       <c r="Y8" s="13"/>
     </row>
     <row r="9" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -11250,10 +11311,10 @@
       <c r="Y9" s="13"/>
     </row>
     <row r="10" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -11277,10 +11338,10 @@
       <c r="Y10" s="13"/>
     </row>
     <row r="11" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -11304,10 +11365,10 @@
       <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -11331,10 +11392,10 @@
       <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -11358,10 +11419,10 @@
       <c r="Y13" s="13"/>
     </row>
     <row r="14" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -11385,10 +11446,10 @@
       <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -11412,10 +11473,10 @@
       <c r="Y15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -11439,10 +11500,10 @@
       <c r="Y16" s="13"/>
     </row>
     <row r="17" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -11466,10 +11527,10 @@
       <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -11493,20 +11554,20 @@
       <c r="Y18" s="13"/>
     </row>
     <row r="19" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="54">
+        <v>45</v>
+      </c>
+      <c r="C19" s="54">
+        <v>45</v>
+      </c>
+      <c r="D19" s="54">
+        <v>45</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="B19" s="63">
-        <v>45</v>
-      </c>
-      <c r="C19" s="63">
-        <v>45</v>
-      </c>
-      <c r="D19" s="63">
-        <v>45</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="F19" s="34">
         <v>10</v>
@@ -11540,12 +11601,12 @@
       <c r="Y19" s="28"/>
     </row>
     <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="34">
         <v>10</v>
@@ -11579,12 +11640,12 @@
       <c r="Y20" s="28"/>
     </row>
     <row r="21" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="34">
         <v>5</v>
@@ -11616,12 +11677,12 @@
       <c r="Y21" s="28"/>
     </row>
     <row r="22" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="33">
         <v>10</v>
@@ -11655,12 +11716,12 @@
       <c r="Y22" s="28"/>
     </row>
     <row r="23" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="33">
         <v>5</v>
@@ -11692,12 +11753,12 @@
       <c r="Y23" s="28"/>
     </row>
     <row r="24" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" s="33">
         <v>10</v>
@@ -11731,12 +11792,12 @@
       <c r="Y24" s="28"/>
     </row>
     <row r="25" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="33">
         <v>5</v>
@@ -11768,12 +11829,12 @@
       <c r="Y25" s="28"/>
     </row>
     <row r="26" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="15" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="F26" s="34">
         <v>5</v>
@@ -11805,12 +11866,12 @@
       <c r="Y26" s="28"/>
     </row>
     <row r="27" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F27" s="34">
         <v>5</v>
@@ -11841,13 +11902,13 @@
       <c r="X27" s="28"/>
       <c r="Y27" s="28"/>
     </row>
-    <row r="28" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+    <row r="28" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F28" s="34">
         <v>15</v>
@@ -11883,20 +11944,20 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="63">
+      <c r="A29" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="54">
         <v>40</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="54">
         <v>40</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="54">
         <v>0</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F29" s="34">
         <v>10</v>
@@ -11930,12 +11991,12 @@
       <c r="Y29" s="28"/>
     </row>
     <row r="30" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F30" s="34">
         <v>5</v>
@@ -11967,12 +12028,12 @@
       <c r="Y30" s="28"/>
     </row>
     <row r="31" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F31" s="34">
         <v>10</v>
@@ -12005,13 +12066,13 @@
       <c r="X31" s="28"/>
       <c r="Y31" s="28"/>
     </row>
-    <row r="32" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
+    <row r="32" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F32" s="34">
         <v>15</v>
@@ -12049,12 +12110,12 @@
       <c r="Y32" s="28"/>
     </row>
     <row r="33" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F33" s="34">
         <v>5</v>
@@ -12086,12 +12147,12 @@
       <c r="Y33" s="28"/>
     </row>
     <row r="34" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F34" s="34">
         <v>5</v>
@@ -12123,12 +12184,12 @@
       <c r="Y34" s="28"/>
     </row>
     <row r="35" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F35" s="34">
         <v>5</v>
@@ -12159,21 +12220,21 @@
       <c r="X35" s="28"/>
       <c r="Y35" s="28"/>
     </row>
-    <row r="36" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="63">
+    <row r="36" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="54">
         <v>35</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="54">
         <v>35</v>
       </c>
-      <c r="D36" s="63">
+      <c r="D36" s="54">
         <v>0</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="34">
         <v>5</v>
@@ -12204,13 +12265,13 @@
       <c r="X36" s="28"/>
       <c r="Y36" s="28"/>
     </row>
-    <row r="37" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
+    <row r="37" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F37" s="34">
         <v>5</v>
@@ -12241,13 +12302,13 @@
       <c r="X37" s="28"/>
       <c r="Y37" s="28"/>
     </row>
-    <row r="38" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+    <row r="38" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F38" s="34">
         <v>5</v>
@@ -12278,13 +12339,13 @@
       <c r="X38" s="28"/>
       <c r="Y38" s="28"/>
     </row>
-    <row r="39" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+    <row r="39" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F39" s="34">
         <v>10</v>
@@ -12317,13 +12378,13 @@
       <c r="X39" s="28"/>
       <c r="Y39" s="28"/>
     </row>
-    <row r="40" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+    <row r="40" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F40" s="34">
         <v>5</v>
@@ -12354,13 +12415,13 @@
       <c r="X40" s="28"/>
       <c r="Y40" s="28"/>
     </row>
-    <row r="41" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+    <row r="41" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="34">
         <v>5</v>
@@ -13743,11 +13804,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="I1:Y1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -13764,15 +13829,11 @@
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="C29:C35"/>
     <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="I1:Y1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="I42:Y91">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
@@ -13843,8 +13904,8 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13859,78 +13920,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
+      <c r="I1" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="46">
         <v>1</v>
       </c>
@@ -13963,14 +14024,14 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="68">
+      <c r="A4" s="72"/>
+      <c r="B4" s="70">
         <v>0</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="59">
         <v>0</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="57">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -13989,10 +14050,10 @@
       <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -14009,10 +14070,10 @@
       <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -14029,10 +14090,10 @@
       <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -14049,10 +14110,10 @@
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
@@ -14069,10 +14130,10 @@
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
@@ -14089,10 +14150,10 @@
       <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -14109,10 +14170,10 @@
       <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -14129,10 +14190,10 @@
       <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -14149,10 +14210,10 @@
       <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -14169,10 +14230,10 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -14189,10 +14250,10 @@
       <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -14209,10 +14270,10 @@
       <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -14229,10 +14290,10 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -14249,10 +14310,10 @@
       <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -14268,21 +14329,21 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="63">
+    <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="54">
         <v>20</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="54">
         <v>20</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="54">
         <v>0</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F19" s="34">
         <v>5</v>
@@ -14306,13 +14367,13 @@
       <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
     </row>
-    <row r="20" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+    <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F20" s="34">
         <v>5</v>
@@ -14337,12 +14398,12 @@
       <c r="R20" s="42"/>
     </row>
     <row r="21" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F21" s="34">
         <v>10</v>
@@ -14369,12 +14430,12 @@
       <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="34">
         <v>5</v>
@@ -14399,20 +14460,20 @@
       <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="63">
+      <c r="A23" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="54">
         <v>15</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="54">
         <v>15</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="54">
         <v>15</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" s="34">
         <v>10</v>
@@ -14428,7 +14489,7 @@
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
-      <c r="N23" s="77"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="44"/>
       <c r="P23" s="42">
         <v>5</v>
@@ -14439,12 +14500,12 @@
       <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F24" s="34">
         <v>5</v>
@@ -14461,7 +14522,7 @@
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
       <c r="N24" s="45"/>
-      <c r="O24" s="78"/>
+      <c r="O24" s="51"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
       <c r="R24" s="42">
@@ -14469,12 +14530,12 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="34">
         <v>5</v>
@@ -14498,21 +14559,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="63">
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="54">
         <v>15</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="54">
         <v>15</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="54">
         <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F26" s="34">
         <v>3</v>
@@ -14536,13 +14597,13 @@
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
     </row>
-    <row r="27" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+    <row r="27" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F27" s="34">
         <v>3</v>
@@ -14560,7 +14621,7 @@
       <c r="M27" s="42">
         <v>2</v>
       </c>
-      <c r="N27" s="79">
+      <c r="N27" s="52">
         <v>1</v>
       </c>
       <c r="O27" s="44"/>
@@ -14568,13 +14629,13 @@
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
     </row>
-    <row r="28" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F28" s="34">
         <v>3</v>
@@ -14590,7 +14651,7 @@
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
-      <c r="N28" s="79">
+      <c r="N28" s="52">
         <v>3</v>
       </c>
       <c r="O28" s="44"/>
@@ -14598,13 +14659,13 @@
       <c r="Q28" s="42"/>
       <c r="R28" s="42"/>
     </row>
-    <row r="29" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+    <row r="29" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F29" s="34">
         <v>3</v>
@@ -14620,7 +14681,7 @@
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
-      <c r="N29" s="79">
+      <c r="N29" s="52">
         <v>1</v>
       </c>
       <c r="O29" s="44">
@@ -14630,13 +14691,13 @@
       <c r="Q29" s="42"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+    <row r="30" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F30" s="34">
         <v>3</v>
@@ -15801,6 +15862,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="D26:D30"/>
@@ -15817,18 +15890,6 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="D4:D18"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I19:M30 O19:R30">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
